--- a/main.xlsx
+++ b/main.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17038\Documents\ML_Python_LFS_II\mlforfinance-novdec\4_Streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F5318-1FB7-47E2-8DFB-826D294E333B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2193822E-ECD4-4F89-84E0-AC6C58D0A1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{E7E640AC-8E76-4304-9B29-D2CE3EFB3069}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{4D2EE98E-C222-4306-B88E-CB3BFB8B1E6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+  <si>
+    <t>Price ($)</t>
+  </si>
+  <si>
+    <t>main_dishes</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
   <si>
     <t>Kichadi-Upma</t>
   </si>
@@ -112,12 +122,6 @@
   </si>
   <si>
     <t>Extra Sambar/ Kurma/Masala</t>
-  </si>
-  <si>
-    <t>main_dishes</t>
-  </si>
-  <si>
-    <t>price($)</t>
   </si>
 </sst>
 </file>
@@ -125,18 +129,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,31 +168,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,306 +491,543 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D32D1B-8BCF-40CE-B968-C39B1283AE08}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464133CD-94E2-4ED5-9C3E-C7957A614DC9}">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.89453125" customWidth="1"/>
-    <col min="2" max="2" width="5.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.578125" customWidth="1"/>
+    <col min="2" max="2" width="6.3125" customWidth="1"/>
+    <col min="6" max="6" width="24.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="7" t="s">
+    <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>8</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
-        <v>7</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7" t="s">
+      <c r="C4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7" t="s">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7" t="s">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7" t="s">
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7" t="s">
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B12" s="3">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="3">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="3">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>6</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="9">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="9">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="9">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="9">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="23.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="9">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="9">
-        <v>8</v>
-      </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" ht="23.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="C22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="3">
+        <v>7</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3">
         <v>10</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" ht="23.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="9">
-        <v>12</v>
-      </c>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" ht="23.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="1"/>
-      <c r="B37" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="J34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75518465-B993-49A4-A48F-F7B9D2709F21}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>